--- a/tests/upstream/test.xlsx
+++ b/tests/upstream/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.116\home\project\kafori\tests\upstream\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feelt\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1ABA9A-8629-4F96-8DB9-1FCE6316C6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D014973E-72C3-4598-B737-31E0115CD86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="1530" windowWidth="23835" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3555" yWindow="1140" windowWidth="13800" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SampleInfo" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>SampleAge</t>
   </si>
   <si>
-    <t>ColectionPart</t>
-  </si>
-  <si>
     <t>Experiment</t>
   </si>
   <si>
@@ -161,6 +158,10 @@
   </si>
   <si>
     <t>Atreated-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollectionPart</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,7 +731,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -762,43 +763,43 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3">
         <v>43899</v>
@@ -807,33 +808,33 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>33</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3">
         <v>43899</v>
@@ -842,33 +843,33 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
         <v>31</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3">
         <v>43899</v>
@@ -877,33 +878,33 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" t="s">
         <v>31</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3">
         <v>43899</v>
@@ -912,28 +913,28 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" t="s">
         <v>33</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
